--- a/UsersJago.xlsx
+++ b/UsersJago.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -393,7 +394,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/UsersJago.xlsx
+++ b/UsersJago.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="16875" windowHeight="6960"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="16872" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -394,15 +393,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -466,7 +465,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -478,7 +477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
